--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value500.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value500.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.25074580607382</v>
+        <v>1.264055609703064</v>
       </c>
       <c r="B1">
-        <v>2.948189508575231</v>
+        <v>2.74508810043335</v>
       </c>
       <c r="C1">
-        <v>3.477795707166376</v>
+        <v>5.105611801147461</v>
       </c>
       <c r="D1">
-        <v>1.260104943640471</v>
+        <v>2.005113363265991</v>
       </c>
       <c r="E1">
-        <v>0.8500237265330614</v>
+        <v>1.033000349998474</v>
       </c>
     </row>
   </sheetData>
